--- a/biology/Zoologie/Canthidermis_sufflamen/Canthidermis_sufflamen.xlsx
+++ b/biology/Zoologie/Canthidermis_sufflamen/Canthidermis_sufflamen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le baliste océanique (Canthidermis sufflamen) est une espèce de poisson osseux de la famille des Balistidés.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est de couleur grise avec des nageoires bleutées. Sa taille maximale est de 65 cm.  La femelle pond ses œufs sur un « nid » au fond de l'eau, que la femelle (parfois le mâle) garde farouchement. Il se nourrit de plancton ou de petits organismes.
 </t>
@@ -542,7 +556,9 @@
           <t>Biotope</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il s'observe en pleine eau entre 5 et 60 m de profondeur, près des tombants ou secs. Il vit en solitaire ou en petits groupes.
 </t>
@@ -573,7 +589,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Atlantique occidental : du Canada au Massachusetts ; des Bermudes et du nord du golfe du Mexique à l’Amérique du Sud. 
 Atlantique central et oriental : les Roches de Saint-Paul, l’Ascension, le Cap-Vert, São Tomé,  Sainte-Hélène.
